--- a/biology/Zoologie/Gauloise_dorée/Gauloise_dorée.xlsx
+++ b/biology/Zoologie/Gauloise_dorée/Gauloise_dorée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gauloise_dor%C3%A9e</t>
+          <t>Gauloise_dorée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La gauloise dorée est une race de poule française. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gauloise_dor%C3%A9e</t>
+          <t>Gauloise_dorée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Description
-La gauloise dorée est de taille modeste. La poule pond régulièrement au printemps et durant l'été des œufs blancs d'au moins soixante grammes.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gauloise dorée est de taille modeste. La poule pond régulièrement au printemps et durant l'été des œufs blancs d'au moins soixante grammes.
 En dépit de sa domestication, cette race a conservé une partie de son caractère sauvage. En particulier la poule peut voler sur plusieurs dizaines de mètres à 5-6 mètres au-dessus du sol sans difficulté, comme toutes les races légères, moyennes et naines.
-La gauloise dorée a bien failli disparaître à la sortie  de la Seconde Guerre mondiale, mais connaît un nouvel essor grâce aux élevages amateurs et professionnels très nombreux[1]
-Standard
-Masse idéale : Coq : 2,5 à 3 kg ; Poule :  2 kg
+La gauloise dorée a bien failli disparaître à la sortie  de la Seconde Guerre mondiale, mais connaît un nouvel essor grâce aux élevages amateurs et professionnels très nombreux
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gauloise_dorée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gauloise_dor%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>L'animal</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Masse idéale : Coq : 2,5 à 3 kg ; Poule :  2 kg
 Crête : simple
 Oreillons : blancs
 Couleur des yeux : rouge orangé
